--- a/Datos/Database by set/Set with text box/Xlsx sets/Friday Night Magic 2000 (FNM).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Friday Night Magic 2000 (FNM).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A51"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,350 +444,77 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Giant Growth</t>
+          <t>('Giant Growth', ['{G}', 'Instant', 'Target creature gets +3/+3 until end of turn.'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{G}</t>
+          <t>('Llanowar Elves', ['{G}', 'Creature — Elf Druid', '{T}: Add {G}.', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Instant</t>
+          <t>('Longbow Archer', ['{W}{W}', 'Creature — Human Soldier Archer', 'First strike; reach (This creature can block creatures with flying.)', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Target creature gets +3/+3 until end of turn.</t>
+          <t>('Mind Warp', ['{X}{3}{B}', 'Sorcery', 'Look at target player’s hand and choose X cards from it. That player discards those cards.'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Llanowar Elves</t>
+          <t>('Prodigal Sorcerer', ['{2}{U}', 'Creature — Human Wizard', '{T}: Prodigal Sorcerer deals 1 damage to any target.', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>{G}</t>
+          <t>('River Boa', ['{1}{G}', 'Creature — Snake', 'Islandwalk (This creature can’t be blocked as long as defending player controls an Island.)', '{G}: Regenerate River Boa.', '2/1'])</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Creature — Elf Druid</t>
+          <t>('Shock', ['{R}', 'Instant', 'Shock deals 2 damage to any target.'])</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>{T}: Add {G}.</t>
+          <t>('Staunch Defenders', ['{3}{W}{W}', 'Creature — Human Soldier', 'When Staunch Defenders enters the battlefield, you gain 4 life.', '3/4'])</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>('Stone Rain', ['{2}{R}', 'Sorcery', 'Destroy target land.'])</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Longbow Archer</t>
+          <t>('Terror', ['{1}{B}', 'Instant', 'Destroy target nonartifact, nonblack creature. It can’t be regenerated.'])</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>{W}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Creature — Human Soldier Archer</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>First strike; reach (This creature can block creatures with flying.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Mind Warp</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>{X}{3}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Look at target player’s hand and choose X cards from it. That player discards those cards.</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Prodigal Sorcerer</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>{2}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Creature — Human Wizard</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>{T}: Prodigal Sorcerer deals 1 damage to any target.</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>River Boa</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>{1}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Creature — Snake</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Islandwalk (This creature can’t be blocked as long as defending player controls an Island.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>{G}: Regenerate River Boa.</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>2/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Shock</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Shock deals 2 damage to any target.</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Staunch Defenders</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>{3}{W}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Creature — Human Soldier</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>When Staunch Defenders enters the battlefield, you gain 4 life.</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>3/4</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Stone Rain</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>{2}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Destroy target land.</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Terror</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>{1}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Destroy target nonartifact, nonblack creature. It can’t be regenerated.</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Volcanic Geyser</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>{X}{R}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Volcanic Geyser deals X damage to any target.</t>
+          <t>('Volcanic Geyser', ['{X}{R}{R}', 'Instant', 'Volcanic Geyser deals X damage to any target.'])</t>
         </is>
       </c>
     </row>
